--- a/biology/Zoologie/Aplustrum_amplustre/Aplustrum_amplustre.xlsx
+++ b/biology/Zoologie/Aplustrum_amplustre/Aplustrum_amplustre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aplustrum
 Aplustrum amplustre, unique représentant du genre Aplustrum, est une espèce de mollusques hétérobranches marins de la famille des Aplustridae.
@@ -512,9 +524,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont de petits mollusques gastéropodes à coquille apparente. Leur coquille est spiralée, alternant des bandes roses et blanches bordées de noir (parfois seulement noire et blanche). Cette espèce mesure entre 1,5 et 3 cm[2], pour 2 cm de haut[3]. La spire est plate, avec une suture profonde. Le corps est blanc translucide, avec deux yeux noirs assez visibles et deux tentacules antérieurs partant de l'écusson céphalique[4]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont de petits mollusques gastéropodes à coquille apparente. Leur coquille est spiralée, alternant des bandes roses et blanches bordées de noir (parfois seulement noire et blanche). Cette espèce mesure entre 1,5 et 3 cm, pour 2 cm de haut. La spire est plate, avec une suture profonde. Le corps est blanc translucide, avec deux yeux noirs assez visibles et deux tentacules antérieurs partant de l'écusson céphalique. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On trouve cet animal à faible profondeur, dans les écosystèmes coralliens de l'Indo-Pacifique tropical. Il est commun sous les pierres[3]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cet animal à faible profondeur, dans les écosystèmes coralliens de l'Indo-Pacifique tropical. Il est commun sous les pierres. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La position phylogénétique de ce taxon est encore peu claire[5]. Il a été longtemps appelé Hydatina amplustre, nom que l'on retrouve encore dans certaines sources. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La position phylogénétique de ce taxon est encore peu claire. Il a été longtemps appelé Hydatina amplustre, nom que l'on retrouve encore dans certaines sources. 
 </t>
         </is>
       </c>
